--- a/trunk/offlineinsuretemplate.xlsx
+++ b/trunk/offlineinsuretemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>序号</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>LTBCVC2A9KGC03601</t>
+  </si>
+  <si>
+    <t>2020年4月29日</t>
   </si>
 </sst>
 </file>
@@ -93,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -136,6 +139,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,7 +183,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +206,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,14 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -243,29 +269,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,103 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,79 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +494,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +537,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -530,24 +568,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,28 +587,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,137 +615,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +777,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1125,7 +1125,7 @@
     <col min="11" max="11" width="13.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="22.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="2"/>
+    <col min="14" max="14" width="23.5" style="2" customWidth="1"/>
     <col min="15" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
@@ -1192,7 +1192,7 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1222,13 +1222,13 @@
       <c r="M2" s="6">
         <v>1381110000</v>
       </c>
-      <c r="N2" s="11">
-        <v>43950</v>
+      <c r="N2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="O2" s="9">
         <v>3580</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>3580</v>
       </c>
       <c r="Q2" s="6">

--- a/trunk/offlineinsuretemplate.xlsx
+++ b/trunk/offlineinsuretemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="保险数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>序号</t>
   </si>
@@ -67,16 +67,19 @@
     <t>保费</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>张x</t>
-  </si>
-  <si>
-    <t>413030198106022123</t>
+    <t>是</t>
+  </si>
+  <si>
+    <t>张三的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  413030198106022123</t>
   </si>
   <si>
     <t>ASHJ05H86920Q000014C</t>
+  </si>
+  <si>
+    <t>京东方打广告</t>
   </si>
   <si>
     <t>普宁松吉广达店</t>
@@ -96,11 +99,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -131,37 +134,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,93 +237,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,21 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,15 +519,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -548,10 +527,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -572,6 +549,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -587,11 +584,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,145 +606,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,9 +783,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1106,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1192,17 +1192,17 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
-        <v>4168</v>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6">
         <v>13412345678</v>
@@ -1214,16 +1214,16 @@
         <v>12</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="6">
         <v>1381110000</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="9">
         <v>3580</v>

--- a/trunk/offlineinsuretemplate.xlsx
+++ b/trunk/offlineinsuretemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>序号</t>
   </si>
@@ -31,15 +31,12 @@
     <t>保单号</t>
   </si>
   <si>
+    <t>购买方式</t>
+  </si>
+  <si>
     <t>经销商</t>
   </si>
   <si>
-    <t>经销商地址</t>
-  </si>
-  <si>
-    <t>经销商手机号</t>
-  </si>
-  <si>
     <t>用户手机号</t>
   </si>
   <si>
@@ -79,10 +76,10 @@
     <t>ASHJ05H86920Q000014C</t>
   </si>
   <si>
-    <t>京东方打广告</t>
-  </si>
-  <si>
-    <t>普宁松吉广达店</t>
+    <t>自行购买</t>
+  </si>
+  <si>
+    <t>minigps</t>
   </si>
   <si>
     <t>松吉</t>
@@ -99,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -133,6 +130,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -141,14 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,22 +181,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,17 +213,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +245,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,45 +260,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -269,9 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +498,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -516,24 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -545,6 +533,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,21 +581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1119,17 +1116,16 @@
     <col min="5" max="5" width="22.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10" style="2"/>
-    <col min="11" max="11" width="13.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10" style="2"/>
+    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10" style="2"/>
+    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1178,60 +1174,54 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:17">
+    <row r="2" ht="16.5" spans="1:16">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6">
+        <v>13412345679</v>
+      </c>
+      <c r="I2" s="6">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6">
-        <v>13412345678</v>
-      </c>
-      <c r="I2" s="6">
-        <v>13412345679</v>
-      </c>
-      <c r="J2" s="6">
-        <v>12</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="6">
+        <v>1381110000</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6">
-        <v>1381110000</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="9">
         <v>3580</v>
       </c>
-      <c r="P2" s="11">
+      <c r="O2" s="11">
         <v>3580</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="P2" s="6">
         <v>100</v>
       </c>
     </row>
